--- a/examples/go_card_retailers/go_card_profile.xlsx
+++ b/examples/go_card_retailers/go_card_profile.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Cleveland station</t>
+          <t>Bald Hills Station</t>
         </is>
       </c>
       <c r="S4" t="n">

--- a/examples/go_card_retailers/go_card_profile.xlsx
+++ b/examples/go_card_retailers/go_card_profile.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Bald Hills Station</t>
+          <t>7-Eleven Ashmore</t>
         </is>
       </c>
       <c r="S4" t="n">

--- a/examples/go_card_retailers/go_card_profile.xlsx
+++ b/examples/go_card_retailers/go_card_profile.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,22 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>distinct_values</t>
+          <t>most_frequent_value</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>most_frequent_value</t>
+          <t>memory_consumed_bytes</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>memory_consumed_bytes</t>
+          <t>pattern_count</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>patterns</t>
         </is>
       </c>
     </row>
@@ -503,12 +508,17 @@
       <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
-        <v>889</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>2693</v>
+      </c>
       <c r="S2" t="n">
-        <v>2693</v>
+        <v>888</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>['10', '100', '1001', '1006', '101', '1011', '1016', '102', '1021', '1026', '103', '1031', '1036', '104', '1041', '1046', '105', '1051', '1056', '106', '1061', '1066', '107', '1071', '1076', '108', '1081', '1086', '109', '1091', '1096', '11', '110', '1101', '1106', '111', '1111', '1116', '112', '1121', '1126', '113', '1131', '1136', '114', '1141', '1146', '115', '1156', '116', '1161', '1166', '117', '1171', '1176', '118', '1181', '1186', '119', '1191', '1196', '12', '120', '1201', '1206', '121', '1211', '1216', '122', '1221', '1226', '123', '1231', '1236', '124', '1241', '1246', '125', '1251', '1256', '126', '1261', '1266', '127', '1271', '1276', '128', '1281', '1286', '129', '1291', '1296', '13', '130', '1301', '1306', '131', '1311', '1316', '132', '1321', '1326', '133', '1331', '1336', '134', '1341', '1346', '135', '1351', '1356', '136', '1361', '1366', '137', '1371', '1376', '138', '1381', '1386', '139', '1391', '1396', '14', '140', '1401', '1406', '141', '1411', '1416', '142', '1421', '1426', '143', '1431', '1436', '144', '1441', '1446', '145', '1451', '1456', '146', '1461', '1466', '147', '1471', '1476', '148', '1481', '1486', '149', '1491', '1496', '15', '150', '1501', '1506', '151', '1511', '1516', '152', '1521', '1526', '153', '1531', '1536', '154', '1541', '155', '1551', '1556', '156', '1561', '1566', '157', '1571', '1576', '158', '1581', '1586', '159', '1591', '1596', '16', '160', '1601', '1606', '161', '1611', '1616', '162', '1621', '1626', '163', '1631', '1636', '164', '1641', '1646', '165', '1651', '1656', '166', '1661', '1666', '167', '1671', '1676', '168', '1681', '169', '17', '170', '171', '172', '173', '174', '175', '176', '177', '178', '179', '18', '180', '181', '182', '183', '184', '185', '186', '187', '188', '189', '19', '190', '191', '192', '193', '194', '195', '196', '197', '198', '199', '2', '20', '200', '201', '202', '203', '204', '205', '206', '207', '208', '209', '21', '210', '211', '212', '213', '214', '215', '216', '217', '218', '219', '22', '220', '221', '222', '223', '224', '225', '226', '227', '228', '229', '23', '230', '231', '232', '233', '234', '235', '236', '237', '238', '239', '24', '240', '241', '242', '243', '244', '245', '246', '247', '248', '249', '25', '250', '251', '252', '253', '254', '255', '256', '257', '258', '259', '26', '260', '261', '262', '263', '264', '265', '266', '267', '268', '269', '27', '270', '271', '272', '273', '274', '275', '276', '277', '278', '279', '28', '280', '281', '282', '283', '284', '285', '286', '287', '288', '289', '29', '290', '291', '292', '293', '294', '295', '296', '297', '298', '299', '3', '30', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '31', '310', '311', '312', '313', '314', '315', '316', '317', '318', '319', '32', '320', '321', '322', '323', '324', '325', '326', '327', '328', '329', '33', '330', '331', '332', '333', '334', '335', '336', '337', '338', '339', '34', '340', '341', '342', '343', '344', '345', '346', '347', '348', '349', '35', '350', '351', '352', '353', '354', '355', '356', '357', '358', '359', '36', '360', '361', '362', '363', '364', '365', '366', '367', '368', '369', '37', '370', '371', '372', '373', '374', '375', '376', '377', '378', '379', '38', '380', '381', '382', '383', '384', '385', '386', '387', '388', '389', '39', '390', '391', '392', '393', '394', '395', '396', '397', '398', '399', '4', '40', '400', '401', '403', '404', '405', '406', '407', '408', '409', '41', '410', '411', '412', '413', '414', '415', '416', '417', '418', '419', '42', '420', '421', '422', '423', '424', '425', '426', '427', '428', '429', '43', '430', '431', '432', '433', '434', '435', '436', '437', '438', '439', '44', '440', '441', '442', '443', '444', '445', '446', '447', '448', '449', '45', '450', '451', '452', '453', '454', '455', '456', '457', '458', '459', '46', '460', '461', '462', '463', '464', '465', '466', '467', '468', '469', '47', '470', '472', '473', '474', '475', '476', '477', '478', '479', '48', '480', '481', '482', '483', '484', '485', '486', '487', '488', '489', '49', '490', '491', '492', '493', '494', '495', '496', '497', '498', '499', '5', '50', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '530', '531', '532', '533', '534', '535', '536', '537', '538', '539', '54', '540', '541', '542', '543', '544', '545', '546', '547', '548', '549', '55', '550', '551', '552', '553', '554', '555', '556', '557', '558', '559', '56', '560', '561', '562', '563', '564', '565', '566', '567', '568', '569', '57', '570', '571', '572', '573', '574', '575', '576', '577', '578', '579', '58', '580', '581', '582', '583', '584', '585', '586', '587', '588', '589', '59', '590', '591', '592', '593', '594', '595', '596', '597', '598', '599', '6', '60', '600', '601', '602', '603', '604', '605', '606', '607', '608', '609', '61', '610', '611', '612', '613', '614', '615', '616', '617', '618', '619', '62', '620', '621', '622', '623', '625', '626', '627', '628', '629', '63', '630', '631', '632', '633', '634', '635', '636', '637', '638', '639', '64', '640', '641', '642', '643', '644', '645', '646', '647', '648', '649', '65', '650', '651', '652', '653', '654', '655', '656', '657', '658', '659', '66', '660', '661', '662', '663', '664', '665', '666', '667', '668', '669', '67', '670', '671', '672', '673', '674', '675', '676', '677', '678', '679', '68', '680', '681', '682', '683', '684', '685', '686', '687', '688', '689', '69', '690', '691', '692', '693', '694', '695', '696', '697', '698', '699', '7', '70', '700', '701', '702', '706', '71', '711', '716', '72', '721', '726', '73', '731', '736', '74', '741', '746', '75', '751', '756', '76', '761', '766', '77', '776', '78', '781', '786', '79', '791', '796', '8', '80', '801', '806', '81', '811', '816', '82', '821', '83', '836', '84', '841', '846', '85', '851', '856', '86', '861', '866', '87', '871', '876', '88', '881', '886', '89', '891', '896', '9', '90', '901', '91', '911', '916', '92', '921', '926', '93', '931', '936', '94', '941', '946', '95', '951', '956', '96', '961', '966', '97', '971', '976', '98', '981', '986', '99', '991', '996']</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -564,16 +574,21 @@
       <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>7867</v>
+      </c>
       <c r="S3" t="n">
-        <v>7867</v>
+        <v>3</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>['Archived', 'Draft', 'Published']</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -629,16 +644,21 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>774</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>7-Eleven Ashmore</t>
-        </is>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Geebung station</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>18006</v>
       </c>
       <c r="S4" t="n">
-        <v>18006</v>
+        <v>773</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>['144', '7', '7 Eleven Gaven', '7 Eleven Landmark Resort', '7 Eleven Maudsland', '7 Eleven Noosa', '7 Eleven North Lakes', '7 Eleven Oxley', '7 Eleven Wurtulla', '7-Eleven 120 Edward Street Brisbane', '7-Eleven 136 Queen Street Brisbane', '7-Eleven 174 Adelaide Street Brisbane', '7-Eleven 189 George Street Brisbane', '7-Eleven 231 George Street Brisbane', '7-Eleven 243 Edward Street Brisbane', '7-Eleven 324 Queen Street Brisbane', '7-Eleven 333 George Street Brisbane', '7-Eleven Adelaide Street', '7-Eleven Albany Creek', '7-Eleven Albert Street Brisbane', '7-Eleven Algester', '7-Eleven Ashgrove', '7-Eleven Ashmore', '7-Eleven Aspley', '7-Eleven Aurora Brisbane', '7-Eleven Australia Fair', '7-Eleven Beenleigh', '7-Eleven Bellbird Park', '7-Eleven Birkdale', '7-Eleven Boronia Heights', '7-Eleven Bracken Ridge', '7-Eleven Brassall', '7-Eleven Bray Park', '7-Eleven Broadbeach', '7-Eleven Browns Plains', '7-Eleven Brunswick Street Mall', '7-Eleven Burleigh Central', '7-Eleven Burleigh Heads', '7-Eleven Carina', '7-Eleven Clontarf', '7-Eleven Coolangatta', '7-Eleven Coolangatta South', '7-Eleven Coolum', '7-Eleven Coomera', '7-Eleven Coopers Plains', '7-Eleven Creek Street Brisbane', '7-Eleven Deagon', '7-Eleven Deception Bay', '7-Eleven Dinmore', '7-Eleven Durack', '7-Eleven East Beenleigh', '7-Eleven East Brisbane', '7-Eleven Eatons Hill', '7-Eleven Fairfield Gardens', '7-Eleven Fortitude Valley', '7-Eleven Gaven', '7-Eleven Graceville', '7-Eleven Grange', '7-Eleven Greenslopes', '7-Eleven Hamilton', '7-Eleven Heritage Park', '7-Eleven Hope Island', '7-Eleven Indooroopilly', '7-Eleven Jindalee', '7-Eleven Kedron', '7-Eleven Kenmore', '7-Eleven Kensington Hills', '7-Eleven Kingston', '7-Eleven Kingston South', '7-Eleven Kirra', '7-Eleven Labrador', '7-Eleven Logan City', '7-Eleven Lutwyche', '7-Eleven Lytton Road', '7-Eleven Mackenzie', '7-Eleven Main Beach', '7-Eleven Manly West', '7-Eleven Marcoola', '7-Eleven Maroochydore', '7-Eleven Maroochydore North', '7-Eleven Marsden', '7-Eleven Mermaid Waters', '7-Eleven Mooloolaba', '7-Eleven Moorvale', '7-Eleven Morayfield', '7-Eleven Mt Gravatt East', '7-Eleven Murrumba Downs', '7-Eleven Myer Centre Brisbane', '7-Eleven Nambour', '7-Eleven Nerang', '7-Eleven New Farm', '7-Eleven Newmarket', '7-Eleven Ningi', '7-Eleven Noosa', '7-Eleven Orchid Avenue Surfers Paradise', '7-Eleven Ormeau', '7-Eleven Oxenford', '7-Eleven Pacific Pines', '7-Eleven Palm Beach', '7-Eleven Palm Beach North', '7-Eleven Parkwood', '7-Eleven Pegasus', '7-Eleven Phoenician Broadbeach', '7-Eleven Raceview', '7-Eleven Rangeville', '7-Eleven Red Hill', '7-Eleven Redbank Plains', '7-Eleven Redcliffe', '7-Eleven Richlands', '7-Eleven Riverhills', '7-Eleven Robina', '7-Eleven Runaway Bay', '7-Eleven Sanctuary Cove', '7-Eleven Sandgate', '7-Eleven Silkstone', '7-Eleven Southbank TAFE', '7-Eleven Southport', '7-Eleven Spring Hill', '7-Eleven Springwood', '7-Eleven Strathpine', '7-Eleven Sunnybank', '7-Eleven Sunnybank Hills', '7-Eleven Sunnybank Market Square', '7-Eleven Surfers Paradise', '7-Eleven Taigum', '7-Eleven The Gap', '7-Eleven The Paradise Centre Surfers Paradise', '7-Eleven Toowong', '7-Eleven Toowoomba', '7-Eleven Toowoomba East', '7-Eleven Transit Centre', '7-Eleven Tweed Heads South', '7-Eleven Valley Metro', '7-Eleven Victoria Point', '7-Eleven Vulture Street', '7-Eleven Warana', '7-Eleven Warner', '7-Eleven West End', '7-Eleven Windaroo', '7-Eleven Wishart', '7-Eleven Woodridge', '7-Eleven Wynnum', '7-Eleven Yamanto', '7-Eleven Yeronga', '7-Eleven Zillmere', '7-eleven Red Hill', 'Airtrain Domestic Terminal (Brisbane Airport)', 'Airtrain International Terminal (Brisbane Airport)', 'Albert Street News', 'Albion Station', 'Alderley Licensed Post Office', 'Alderley Station', 'Alexpress Mart', 'Altandi Station', 'Aquarius Backpackers', 'Ascot News', 'Ascot Station', 'Ashgrove News', 'Ashmore City News', 'Ashmore Newsextra', 'Aspley Bus Interchange', 'Auchenflower Station', 'Australia Fair News', 'Australia Post Office Coopers Plains', 'BP Cooroy Supermart', 'BP Yandina Food Stop', 'Bald Hills Station', 'Banoon Station', 'Banyo News and Officesmart', 'Banyo Station', 'Baronnet Apartments', 'Bay Island Transit Ticket Office', 'Bay Lodge Apartments', 'Beaudesert News', 'Beenleigh Station', 'Beerburrum Station', 'Beerwah Station', 'Belvedere News', 'Bethania Station', 'Bindha Station', 'Biota Street News', 'Birkdale Station', 'Birkdale station', 'Bli Bli News', 'Bloomfield Street News', 'Blunder Road Newsagency', 'Boggo Road Busway', 'Bond University Bookshop', 'Boondall News and Casket', 'Boondall Station', 'Boondall station', 'Booval Station', 'Bowen Hills Station', 'Bray Park Station', 'Breakfree Acapulco', 'Breakfree Beachpoint', 'Breakfree Cosmpolitan', 'Breakfree Diamond Beach', 'Breakfree Longbeach', 'Breakfree Morrocan', 'Bribie Island Park n Ride', 'Brisbane Convenience Centre', 'Broadbeach Central IGA', 'Broadbeach News and Casket', 'Broadbeach North Tram Station', 'Broadbeach Oasis News', 'Broadbeach South Tram Station', 'Broadcast News', 'Broadwater Parklands Tram Station', 'Brook News and Casket', 'Brookside Bus Interchange', 'Buderim Newsagency', 'Bundamba Station', 'Buranda Busway Station', 'Buranda Station', 'Burpengary News', 'Burpengary Station', 'Burstall Avenue News', 'Caboolture Station', 'Caboolture Station Ticket Office', 'Caloundra Newsagency', 'Camp Hill Newsagency', 'Campus Book Shop', 'Campus Bookshop', 'Campus News', 'Cannon Hill Bus Interchange', 'Cannon Hill Friendly Grocer', 'Cannon Hill Station', 'Carina Newsagency', 'Carindale Bus Interchange', 'Carseldine Station', 'Casino News', 'Cavendish Road News', 'Cavill Avenue Tram Station', 'Central station', 'Centrepoint Apartments', 'Chapel Hill News', 'Chatswood Hills News', 'Chelmer station', 'Chermside Bus Interchange', 'Chevron 7 Day Express Food Store', 'Chevron Palms', 'Chevron Towers Tour Desk', 'Chris Supa IGA', 'Christines Corner Newsagency', 'Circle News', 'City Mall News', 'City News', 'Clarks Logan City Bus ticket kiosk Loganholme', 'Clarks Logan City Bus ticket kiosk Springwood', 'Clayfield station', 'Cleveland station', 'Clock Corner Convenience Store &amp; Take-Away', 'Co-Op Bookshop ACU', 'Co-Op Bookshop GU Logan', 'Co-Op Bookshop GU Mt Gravatt', 'Co-Op Bookshop QCM', 'Co-op Bookshop (USC)', 'Co-op Bookshop UQ Gatton', 'Co-op Bookshop UQ Ipswich', 'Collingwood Park News', 'Colmslie Plaza News', 'Colonial Village 4 Espresso', 'Commercial Road News', 'Coolum News &amp; Minimart', 'Coomera station', 'Coopers Plains station', 'Cooroy  station', 'Cooroy Newsagency', 'Cooroy station', 'Coorparoo News', 'Coorparoo station', 'Corinda station', 'Cotton Tree News', 'Crown Towers Resort', 'Cultural Centre busway station', 'Currimundi News', 'Currumbin Creek Newsagency', 'Cypress Avenue tram station', 'Daisy Hill News', 'Dakabin station', 'Darra station', 'David Low Way News', 'Deagon News', 'Deagon station', 'Dinmore station', 'Dockside Convenience Store', 'Domestic Terminal station', 'Doomben station', 'Dutton Park station', 'Eagle Junction News', 'Eagle Junction station', 'Eagle Street News', 'Earls Court Serviced Apartments', 'East Ipswich station', 'Ebbw Vale station', 'Edens Landing News', 'Edens Landing station', 'Eight Mile Plains Busway', 'Elimbah station', 'Enoggera Newsagency', 'Enoggera station', 'Eudlo station', 'Eumundi Village Pharmacy', 'Exchange Casket Agency', 'Ezy Shop', 'Fairfield station', 'Farifield station', 'Ferny Grove station', 'Ferny Hills News &amp; Casket', 'Florida Gardens tram station', 'Foodworks Heathwood', 'Foodworks Jindalee', 'Foodworks Salisbury', 'Foodworks Wishart', 'Forest Lake Village News', 'Fortitude Valley station', 'Four Square', 'Friendly Grocer Broadbeach', 'Friendly Grocer Crestmead', 'Fruitgrove station', 'GPO News', 'GUGC Student Guild', 'Gailes station', 'Garden City bus interchange', 'Gasworks News', 'Gatton Plaza Newsagency', 'Gaythorne Station', 'Gaythorne station', 'Geebung station', 'Gem News and Casket', 'George Street News', 'Get Hummered', 'Given Terrace Newsagency', 'Glasshouse Mountains station', 'Gold Coast Tourism Information Desk', 'Gold Coast Tourism Visitor Information Booth', 'Gold Coast Tourist Shuttle Desk', 'Gold Coast University Hospital tram station', 'Golden Beach News', 'Goodes Newsagency', 'Goodna Newsagency', 'Goodna station', 'Graceville station', 'Greenbank Plaza News', 'Greenslopes Busway', 'Greenslopes Newsagency', 'Griffith University busway station', 'Griffith University tram station', 'Grovely station', 'Gympie North station', 'Helensvale station', 'Hemmant station', 'Hendra station', 'Hi Surf Apartments', 'Highland Park News', 'Holland Park Busway', 'Holland Park Newsagency', 'Holmview station', 'IGA Acacia Ridge', 'IGA East Brisbane', 'IGA Express Alexandra Headlands', 'IGA Express Cannon Hill', 'IGA Express Upper Mt Gravatt', 'IGA Express Woolloongabba', 'IGA Forest Lake', 'Inala Plaza News', 'Indooroopilly station', 'Infinity News', 'International Terminal station', 'Ipswich station', 'JTB Lounge', 'Jetty Newsagency', 'Jindalee News', 'Josies and Leo Convenience Store', 'Junction News and Casket', 'Kallangur Fair News', 'Kallangur News', 'Karana Palms Resort', 'Karrabin station', 'Kawana Bus Station', 'Kedron Newsagency and Casket Shop', 'Kelvin Grove News &amp; Post Office', 'Kenmore News &amp; Casket', 'Kenmore Tavern Plaza News', 'Keperra station', 'King George Square busway station', 'Kings Circle News / Caboolture Officesmart', 'Kingston News', 'Kingston station', 'Kuraby station', 'Kwikimart (a Friendly Grocer Store)', 'Labrador Park Newsagency', 'Landsborough Newsagency', 'Landsborough station', 'Langlands Busway', 'Lawnton station', 'Lindum station', 'Lockyer Valley Tourist Information Centre', 'Logan City News', 'Logan Road News', 'Logandale Plaza News', 'Loganholme Bus Interchange', 'Loganlea station', 'Lota station', 'Lucky 7 Broadwater', 'Lucky 7 Circle', 'Lucky 7 Edward Street', 'Lucky 7 Scarborough Street Convenience', 'Lucky 7 Shores', 'Lucky 7 South Bank', 'Lucky 7 Southport', 'Lucky 7 ƒ?? View Convenience', 'Lucky Charm Noosa', 'Lucky Dragon Newsagency', 'Lucky Mermaid News &amp; Gifts', 'Lytton Road News', 'Macarthur News', 'Macgregor News', 'Macleay Island Post Office', 'Main Beach News and Supermarket', 'Main Beach tram station', 'Manly Harbour Newsagency', 'Manly station', 'Mantra Broadbeach on the Park', 'Mantra Sun City', 'Margate News and Casket', 'Mari Court Resort', 'Markham Court', 'Maroochydore Bus Station', 'Mary Ryans Bookstore', 'Mary Street News', 'Mater Hill busway station', 'Mater News Central', 'Matilda Broadbeach', 'Metro News Indooroopilly', 'Metro News On 1st (Level 1)', 'Metropolitan South Institute of TAFE - Alexandra Hills Campus', 'Metropolitan South Institute of TAFE - Browns Plains', 'Metropolitan South Institute of TAFE - Mt Gravatt Campus', 'Midas News and Casket', 'Middle Park News', 'Midway News and Casket', 'Milton News Centre', 'Milton station', 'Mineral House News', 'Mitchelton station', 'Moffat Beach News', 'Mooloolah station', 'Moorooka Foodstore and News', 'Moorooka News', 'Moorooka station', 'Moorvale News', 'Morayfield station', 'Morningside Central News', 'Morningside News and Casket', 'Morningside station', 'Mountain View News', 'Mt Gravatt East Post Office', 'Murarrie station', 'Nambour News and Casket', 'Nambour station', 'Narangba Licensed Post Office', 'Narangba Valley News', 'Narangba station', 'Nathan Post Office', 'Neptune Resort', 'Nerang Street tram station', 'Nerang station', 'Newmarket Post Office', 'Newmarket station', 'News Bulletin', 'News Extra Central Plaza', 'News Extra Gumdale', 'News on Kameruka', 'NewsExtra Capalaba', 'NewsExtra Everton Park', 'NewsXpress Albany Creek', 'NewsXpress Alexandra Hills', 'NewsXpress Arana Hills', 'NewsXpress Caboolture', 'NewsXpress Chancellor Park', 'NewsXpress Deception Bay', 'NewsXpress Gatton', 'NewsXpress Harbour Town', 'NewsXpress Jimboomba', 'NewsXpress Kawana', 'NewsXpress Manly', 'NewsXpress Middle Park', 'NewsXpress Myer Centre Level E', 'NewsXpress Nerang', 'NewsXpress Noosa Heads', 'NewsXpress North Lakes', 'NewsXpress Redcliffe', 'NewsXpress Robina Town Centre', 'NewsXpress Southport Park', 'NewsXpress The Gap', 'NewsXpress The Pines', 'NewsXpress Westpoint', 'Newsxpress Coomera', 'Newsxpress Noosaville', 'Newsxpress Toowong Village', 'Newtons Newsagency', 'Nextra Beenleigh Marketplace', 'Nextra Booval', 'Nextra Bribie Island News', 'Nextra Browns Plains', 'Nextra Burleigh Heads', 'Nextra Cannon Hill', 'Nextra Capalaba Park News', 'Nextra Carindale City News', 'Nextra Carindale News', 'Nextra Chermside', 'Nextra Day and Night News', 'Nextra Express Chermside', 'Nextra Garden City Lower Level', 'Nextra Garden City Upper Level', 'Nextra General Hospital News', 'Nextra Hyperdome', 'Nextra Kenmore Village News', 'Nextra Lutwyche', 'Nextra Mt Ommaney', 'Nextra Orion Newsagency', 'Nextra Peninsula Fair News', 'Nextra Riverlink News', 'Nextra Toombul', 'Nextra Wynnum Plaza', 'Nibble Coffee and Convenience Store', 'Night Owl', 'Night Owl Boondall', 'Night Owl Brunswick Street', 'Night Owl Highgate Hill', 'Night Owl Mermaid Beach', 'Night Owl North Lakes', 'Night Owl Palm Beach', 'Night Owl Robina', 'Night Owl Southport', 'Night Owl Stones Corner', 'Night Owl Surfers South', 'Night Owl West End', 'Night Owl Wickham Street', 'Nobby Beach Newsagency', 'Noosa Junction Bus Interchange', 'Noosa Junction Newsagency', 'Noosa Plaza Newsagency', 'Noosa Village News', 'Noosa Visitor Information Centre', 'Norfolk News', 'Norman Park Central News', 'Norman Park station', 'Normanby Busway', 'North Boondall station', 'North Greenslopes News', 'North Lakes Bus Interchange', 'North Wavell News', 'Northcliffe tram station', 'Northgate News', 'Northgate station', 'Nottingham Road News', 'Nudgee station', 'Nundah station', 'Ormeau station', 'Ormiston station', 'Outrigger Twin Towns Resort', 'Oxford Park station', 'Oxford Street News', 'Oxley Newsagency', 'Oxley Rail Station Fare Machine', 'Oxley Rail Station Ticket Office', 'PA Hospital Busway', 'Pacific Fair News', 'Pacific News and Casket', 'Pacific Views Resort', 'Paddington News', 'Palm Beach Newsagency', 'Palmdale News', 'Palmwoods station', 'Park Ridge News', 'Park Road station', 'Peregian Beach Newsagency', 'Petrie station', 'Pinkeys Convenience Store', 'Pit Stop News and Supermarket', 'Platform Tours at Marriott Resort &amp; Spa', 'Pomona Newsagency', 'Post Office Square News', 'Princess Alexandra Area News &amp; Casket', 'Q Desk', 'Q1 Tour Desk', 'QUT Kelvin Grove busway station', 'QUT Student Guild', 'Queen Street Busway', 'Queen Street tram station', 'Quik-E-Mart', 'Quikstop Minimart &amp; News', 'RBWH busway station', 'Rainworth News', 'Rankins on the Mall', 'Redbank station', 'Redcliffe Bus Station', 'Redland Bay News', 'Redland Heights News', 'Regents Park News', 'Richlands Rail Station', 'Riding Road News', 'Riverside Ferry Terminal', 'Riverview station', 'Robina station', 'Rochedale News', 'Rocklea station', 'Rode Newsagency', 'Roma Street Busway', 'Roma Street station', 'Rosewood News', 'Rosewood station', 'Royal Childrens Hospital Busway', 'Runaway Bay News', 'Runcorn station', 'Russell Island Licensed Post Office', 'Russell Island News', 'Russell Island Pharmacy', 'SPAR Express Marsden', 'SPC Mini Mart', 'Salisbury station', 'Samford Village Newsagency', 'Sandgate station', 'Seacrest Apartments', 'Sherwood News and Casket Agency', 'Sherwood station', 'Shorncliffe News', 'Shorncliffe station', 'Skylark News', 'Smilemart Southport', 'South Bank Beach News', 'South Bank Busway station', 'South Bank Visitor Centre', 'South Bank station', 'South Brisbane Station', 'South Brisbane Station - Ticket Office', 'Southport RSL', 'Southport South tram station', 'Southport tram station', 'Spar Express', 'Spar Express Eight Mile Plains', 'Spring Hill News', 'Springfield Central Rail Station', 'Springfield Fair News', 'Springfield Rail Station', 'Springwood Busway Station', 'Springwood Mall Newsagency', 'St Lucia News', 'St Lucia Supermarket', 'Stafford City News', 'Stanley Road News', 'Stewart Road Newsagency', 'Stones Corner Busway', 'Stones Corner News', 'Stones Corner Village News', 'Strathpine station', 'Sunbus Customer Service Counter', 'Sunnybank Hills News', 'Sunnybank News and Casket Agency', 'Sunnybank station', 'Sunshine News', 'Sunshine Station', 'Sunshine station', 'Supanews Bracken Ridge', 'Supanews Brisbane Square', 'Supanews Carseldine', 'Supanews Central Station', 'Supanews Green Square', 'Supanews Keperra', 'Supanews Myer Centre Level A', 'Supanews North Lakes', 'Supanews Nundah Village', 'Supanews Strathpine', 'Supanews Xpress Central Station Platform 1/2', 'Supanews Xpress Central Station Platform 3/4', 'Supanews Xpress Central Station Platform 5/6', 'Supanews Xpress Helensvale', 'Supanews Xpress Myer Centre Level E', 'Surf Parade Resort', 'Surfers Aquarius', 'Surfers Paradise Backpackers Resort', 'Surfers Paradise Cruise Terminal', 'Surfers Paradise Newsagency', 'Surfers Paradise North tram station', 'Surfers Paradise tram station', 'Surfers Plaza Resort', 'Surfside Newsagency', 'Swan Newsagency', 'Taigum News', 'Tanah Merah News and Casket', 'Target News', 'Taringa station', 'Tennyson station', 'Terrace News', 'Terry White Chemist Bellbowrie', 'Tewantin Newsagency', 'Thagoona station', 'The Bread Basket', 'The Crest Apartments', 'The Fair Casket and Papershop', 'The Gap Park and Ride', 'The Greener Grocer', 'The Islander', 'Thomas Street station', 'Thorneside station', 'Ticketmates Harbour Town', 'Tobacco Station Stones Corner', 'Toombul Bus Interchange', 'Toombul station', 'Toowong station', 'Town Centre News', 'Trinder Park station', 'Tweed Heads Information Centre', 'UQ (Chancellor)', 'UQ Lakes', 'University of Sunshine Coast Bus Station', 'Upper Mount Gravatt busway station', 'Valley Centre News', 'Varsity Lakes station', 'Victoria Point West Licensed Post Office', 'Village Store Currumbin', 'Virginia  station', 'Virginia station', 'Visitor Information Centre (Regent Theatre)', 'Wacol  station', 'Wacol station', 'Walloon  station', 'Walloon News', 'Walton Bridge News', 'Warrigal Square News', 'Waterford Plaza News', 'Watermark Hotel &amp; Spa', 'Welcome Express Convenience Store', 'Wellington Point News', 'Wellington Point Post Office', 'Wellington Point station', 'West End Market News Power', 'West End News', 'Westside Story Newsagency', 'Wilston  station', 'Wilston News &amp; Post', 'Wilston station', 'Windsor  station', 'Windsor station', 'Winston Glades News', 'Wirreanda News', 'Wishart News', 'Wishart Village News', 'Wongabel News', 'Woodridge  station', 'Woodridge station', 'Woolloongabba News', 'Woolloongabba Post Shop', 'Woolloongabba busway station', 'Wooloowin  station', 'Wooloowin station', 'Woombye  station', 'Wulkuraka  station', 'Wynnum  station', 'Wynnum Central station', 'Wynnum North Newsagency', 'Wynnum North station', 'Wynnum Station News', 'Wynnum station', 'Yeerongpilly station', 'Yeronga  station', 'Yeronga News', 'Yeronga station', 'Zillmere  station', 'Zillmere station']</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -694,16 +714,21 @@
       <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="n">
-        <v>775</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Airport Drive, Airport (Brisbane), Brisbane East</t>
-        </is>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Grey Street, South Brisbane, Brisbane Central</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>46901</v>
       </c>
       <c r="S5" t="n">
-        <v>46901</v>
+        <v>774</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>['1 / 2 - 6 Ethridge Street, Eumundi, Sunshine Coast', '1 Baylink Avenue, Deception Bay, QLD, 4508, Australia', '1 Binstead Way, Pacific Pines, Queensland, Australia', '1 Lakeview Boulevard, Mermaid Waters, Queensland, Australia', '1 Piringa Street, Wurtulla, Queensland, Australia', '1 Princess Street, Taringa, Brisbane West', '1 Sovereign Avenue, Bray Park (Moreton Bay Regional), Northern', '1/1 Maleny Street, Landsborough, Queensland, Australia', '1/109 Seville Road, Holland Park, Queensland, Australia', '1/183 Bennetts Road, Morningside, Queensland, Australia', '10 Eagle Street, Brisbane , Brisbane Central', '10 Memorial Avenue, Pomona, Sunshine Coast', '10 North Street Woorim, Bribie Island, Northern', '10 Transit Centre, Beach Rd, Surfers Paradise, Gold Coast', '10-16 Alexandra Avenue, Mermaid Beach, Queensland, Australia', '100 Brisbane Road, Labrador, Gold Coast', '104 Alexander Drive (corner Explorers Way), Highland Park, Gold Coast', '107 Poinciana Avenue, Tewantin, Sunshine Coast', '11 Connor Street, Burleigh Heads, Queensland, Australia', '11 Depot Road, Deagon, Brisbane North', '110 King Street, Buderim, Sunshine Coast', '1102 Bribie Island Road, Ningi, Queensland, Australia', '111 Ridge Street, Northgate, Brisbane North', '112 Minjungbal Drive, Tweed Heads South, New South Wales, Australia', '1121 Waterworks Road, The Gap, Queensland, Australia', '1131 Ipswich Rd, Moorooka, Brisbane South', '115 - 117 Bloomfield Street, Cleveland, Eastern', '1151 Ipswich Road, Moorooka, Brisbane South', '1160 Gold Coast Highway, Palm Beach, Gold Coast', '118 Waller Road, Heritage Park, Southern', '1186 Gold Coast Highway, Palm Beach, Queensland, Australia', '12 Enderley Avenue, Surfers Paradise, Queensland, Australia', '12 John Street, Rosewood, Western', '12 Queen Street , Walloon, Western', '120 Edward Street, Brisbane , Brisbane Central', '120 Wembley Road, Logan City, Southern', '125 Mains Road, Sunnybank, Brisbane South', '129 Orange Grove Road, Coopers Plains, Brisbane South', '13/521 Beams Rd, Carseldine, Brisbane North', '130 Ash Street, corner Astral Court, Yamanto, Western', '1303 Logan Road, Mount Gravatt, Brisbane South', '131 George Street, Brisbane, Queensland, Australia', '131 Nerang Street, Southport, Queensland, Australia', '132 Leicester Street, Camp Hill, Brisbane East', '133 Finnegan Way, Coomera, Queensland, Australia', '134 Oxford Street, Bulimba, Brisbane South', '1346-1354 Gold Coast Highway, Palm Beach North, Palm Beach, Gold Coast', '136 Queen Street (Cnr Albert and Burnett Lane), Brisbane , Brisbane Central', '137 Parkwood Drive, Heathwood, Brisbane West', '1370 Beenleigh Road, Kuraby, Southern', '1371 Waterworks Road, The Gap, Queensland, Australia', '1374 Gympie Road, Aspley, Brisbane North', '138 Braun Street, Deagon, Brisbane North', '138 Slatyer Avenue, Ashmore, Queensland, Australia', '14 Annerley Road, Woolloongabba, Brisbane South', '14 Rosemary Street, Durack, Brisbane South', '14 Station Road, Indooroopilly, Brisbane West', '14 View Avenue, Surfers Paradise, Queensland, Australia', '140 Ardoyne Road, Oxley, Brisbane South', '140 Honour Avenue, Chelmer, Brisbane South', '1406 Anzac Avenue, Kallangur, Queensland, Australia', '141 Maudsland Road, Oxenford, Queensland, Australia', '1429 Gympie Road, Aspley, Queensland, Australia', '146 Blunder Road, Oxley, Queensland, Australia', '1473 Anzac Avenue, Kallangur, Northern', '15 Breaker Street, Main Beach, Queensland, Australia', '15/19 Via Roma, Surfers Paradise, Queensland, Australia', '150 The Esplanade, Burleigh Heads, Queensland, Australia', '1505 Creek Road, Carina, Brisbane East', '151 Hamilton Road, Wavell Heights, Brisbane North', '152 Musgrave Road, Red Hill (Brisbane City), Brisbane North', '152 Musgrave Road, Red Hill, Queensland, Australia', '155 Biota Street, Inala, Brisbane West', '157 Cavendish Road, Coorparoo, Brisbane East', '158 Ferny Avenue, Surfers Paradise, Queensland, Australia', '159-163 Beenleigh-Beaudesert Road, Windaroo, Southern', '160 Cotlew Street, Ashmore, Queensland, Australia', '167 Queen Street, Brisbane, Queensland, Australia', '169 Algester Road, Algester, Brisbane South', '17 Zillman Road, Hendra, Queensland, Australia', '170 Leichhardt Street, Spring Hill, Brisbane North', '170 Old Pacific Highway, Oxenford, Gold Coast', '171 Roma Street, Brisbane , Brisbane Central', '1722 Logan Road, Upper Mount Gravatt, Brisbane South', '174 Adelaide Street, Brisbane , Brisbane Central', '1786 David Low Way, Coolum Beach, Sunshine Coast', '1796-1800 David Low Way, Coolum Beach, Queensland, Australia', '18 Cracknell Road, Annerley, Brisbane South', '18 Griffith Street, Coolangatta (Gold Coast City), Gold Coast', '18 Racecourse Road, Hamilton, Brisbane North', '180 Fairfield Road, Fairfield Gardens, Brisbane South', '181 Florence St, Wynnum, Brisbane East', '182 Stanley Road, North Carina, Brisbane East', '183 Ann Street, Brisbane, Brisbane Central', '185  Sir Fred Schonell Drive, St Lucia, Brisbane West', '186 Beaudesert Road, Moorooka, Brisbane South', '189 George Street, Brisbane , Brisbane Central', '19 Samford Road, Alderley, Queensland, Australia', '19 Tedder Avenue, Main Beach, Queensland, Australia', '1968 Sandgate Road, Boondall, Queensland, Australia', '198 Boundary Road, Bardon, Brisbane North', '199 Boundary Street, West End (Brisbane City), Brisbane South', '2 Cavill Avenue, Surfers Paradise, Queensland, Australia', '2 George Street, Queensland University of Technology, Gardens Point campus (L block), Brisbane , Brisbane North', '2 Juers Street, Kingston, Queensland, Australia', '2 Myla Terrace, Tennyson, Brisbane South', '2 Thornton Street, Surfers Paradise, Queensland, Australia', '2-4 Bunya Park Drive, Eatons Hill, Queensland, Australia', '2-6 City Road, Beenleigh, Southern', '2/3374 Beaudesert Road, Browns Plains, Brisbane South', '2/412 Old Cleveland Road, Coorparoo, Queensland, Australia', '2/67 Burnett Street, Buderim, Sunshine Coast', '20 Anzac Avenue, Redcliffe, Northern', '20 Bayview Street, Runaway Bay, Queensland, Australia', '200 Mirambeena Drive, Pimpama, Southern', '201 Ferry Road, Southport, Queensland, Australia', '2058-2062 Moggill Road, Kenmore, Brisbane West', '2069 Moggill Road , Kenmore, Brisbane West', '208 Progress Road, Richlands, Queensland, Australia', '21 Hunter Street, Brassall, Western', '210 Surf Parade, Surfers Paradise, Queensland, Australia', '212 Cracknell Road, Tarragindi, Brisbane South', '2120 Logan Road, Upper Mount Gravatt, Brisbane South', '217 Hawken Drive, St Lucia, Brisbane West', '2208 Ipswich Road, Oxley, Queensland, Australia', '221 Ruthven Street, North Toowoomba, Queensland, Australia', '23 Ferny Avenue, Surfers Paradise, Queensland, Australia', '23 Wharf Road, Surfers Paradise, Queensland, Australia', '230 Brunswick Street, Fortitude Valley, Queensland, Australia', '231 George Street, Brisbane , Brisbane Central', '236 Napper Road, Parkwood, Gold Coast', '2375 Gold Coast Highway, Mermaid Beach, Queensland, Australia', '24 Farrell Street, Yandina, Sunshine Coast', '243 Brunswick Street, Fortitude Valley, Brisbane Central', '243 Edward Street, Brisbane , Brisbane Central', '246 Oxley Road, Graceville, Brisbane South', '250 Ipswich Road, Buranda, Brisbane South', '253 Scottsdale Drive, Robina, Queensland, Australia', '259 Queen Street, Macarthur Central Building, Brisbane , Brisbane Central', '264-266 Browns Plains Road, Browns Plains, Brisbane South', '2669 Gold Coast Highway, Broadbeach, Queensland, Australia', '267-273 Browns Plains Road, Crestmead, Queensland, Australia', '268 St Vincents Road, Banyo, Brisbane North', '268 Waterworks Road, Ashgrove, Queensland, Australia', '2685 Gold Coast Highway, Broadbeach, Queensland, Australia', '270 Oxley Avenue, Margate, Queensland, Australia', '2703 Gold Coast Highway, Broadbeach, Gold Coast', '2719 Gold Coast Highway, Broadbeach, Gold Coast', '272 Junction Road, Eagle Junction, Brisbane North', '272 Morayfield Road, Morayfield, Northern', '276 St Vincents Road, Banyo, Brisbane North', '28 Elizabeth Street, Acacia Ridge, Brisbane South', '28 Elm Street, Cooroy, Sunshine Coast', '28 Maple Street, Cooroy, Sunshine Coast', '28 Northcliffe Terrace, Surfers Paradise, Queensland, Australia', '280 Queen Street, Brisbane , Brisbane Central', '281 Brunswick Street, Fortitude Valley, Queensland, Australia', '2837 Gold Coast Highway, Surfers Paradise, Queensland, Australia', '287 King Street, Caboolture, Northern', '29 High Street, Russell Island, Queensland, Australia', '29-31 Brisbane Road, Dinmore, Western', '3/2453 Gold Coast Highway, Mermaid Beach, Queensland, Australia', '3/71 Racecourse Road, Ascot, Queensland, Australia', '30 Cypress Street, Redland Bay, Eastern', '30 Station Avenue, Enoggera, Brisbane North', '3031 Gold Coast Highway, Surfers Paradise, Queensland, Australia', '3032 Surfers Paradise Boulevard, Surfers Paradise, Queensland, Australia', '307 Logan Road, Stones Corner, Brisbane South', '31 Aubrey Street, Surfers Paradise, Queensland, Australia', '31 Pitcairn Way, Pacific Pines, Queensland, Australia', '3128 Surfers Paradise Boulevard, Surfers Paradise, Queensland, Australia', '3142 Surfers Paradise Boulevard, Surfers Paradise, Queensland, Australia', '318 Creek Road, Mount Gravatt East, Queensland, Australia', '3184 Surfers Paradise Boulevard, Surfers Paradise, Queensland, Australia', '3184 Surfers Paradise Boulevards, Surfers Paradise, Gold Coast', '3187 Gold Coast Highway, Surfers Paradise, Gold Coast', '3187 Surfers Paradise Boulevard, Surfers Paradise, Queensland, Australia', '3191 Surfers Paradise Boulevard, Surfers Paradise, Queensland, Australia', '32 Surf Parade, Broadbeach, Queensland, Australia', '3215 Logan Road, Underwood, Southern', '324 Queen Street, Brisbane , Brisbane Central', '328 - 330 James Street, South Toowoomba, Queensland, Australia', '33 Lytton Road, East Brisbane, Brisbane East', '3313 Surfers Paradise Boulevard, Surfers Paradise, Queensland, Australia', '34 Hooker Boulevard, Broadbeach, Queensland, Australia', '341 Southport-Oxenford Road, Hope Island, Gold Coast', '342 McCullough Street, Macgregor, Queensland, Australia', '3448 Main Beach Parade, Surfers Paradise, Queensland, Australia', '347 Logan Road, Stones Corner, Brisbane South', '35 Palm Avenue, Surfers Paradise, Queensland, Australia', '351 Beams Road, Taigum, Queensland, Australia', '354 Redbank Plains Road, Bellbird Park, Queensland, Australia', '355 Redbanks Plains Road, Redbank Plains, Western', '3568 Main Beach Parade, Main Beach, Queensland, Australia', '357 Bilsen Road, Geebung, Brisbane North', '359 Gympie Road (cnr Castle Road), Kedron, Brisbane North', '36 Australia Avenue, Broadbeach, Queensland, Australia', '36 Main Street, Narangba, Queensland, Australia', '36 Scarborough Street, Southport, Queensland, Australia', '360 Queen Street, Brisbane , Brisbane Central', '363 Adelaide Street, Brisbane , Brisbane Central', '370 George Street, Brisbane , Brisbane Central', '376 Brunswick Street, Fortitude Valley, Brisbane Central', '377 Handford Road, Taigum, Queensland, Australia', '38 Hemmant-Tingalpa Road, Hemmant, Brisbane East', '38 Junction Road, Morningside, Brisbane East', '4 Bulcock Street, Caloundra, Sunshine Coast', '4 Diamond Street, Cooroy, Sunshine Coast', '4 Old Burleigh Road, Surfers Paradise, Queensland, Australia', '4 Wellington Street, Virginia, Brisbane North', '4/841 Moggill Road, Kenmore, Queensland, Australia', '40 Nerang Street, Southport, Gold Coast', '40 Park Road, Milton, Brisbane West', '40-42 Tarcoola Crescent, Surfers Paradise, Queensland, Australia', '400 Nerang Road, Southport, Queensland, Australia', '41 George Street, Brisbane , Brisbane Central', '419 Beaudesert Road, Moorooka, Brisbane South', '420 Queen Street, corner Wharf Street, Brisbane , Brisbane Central', '439 Cleveland-Redland Bay Road, Thornlands, Queensland, Australia', '44 Queen Street, Southport, Queensland, Australia', '446 Lutwyche Road, Lutwyche, Brisbane North', '448 Burpengary Road, Narangba, Northern', '458 George Street, Brisbane , Brisbane Central', '459 Manly Road, Manly West, Eastern', '46 Thomas Drive, Surfers Paradise, Gold Coast', '47 - 59 Adelaide Street, Brisbane , Brisbane Central', '476 Logan Road, Greenslopes, Queensland, Australia', '48 - 54 Stanhill Drive, Surfers Paradise, Queensland, Australia', '48-56 Commerce Drive, Robina, Queensland, Australia', '49 Albion Road, Albion, Brisbane North', '49 Wharf Street, Tweed Heads, New South Wales, Australia', '5 Nind Street, Southport, Queensland, Australia', '5-19 Palm Avenue, Surfers Paradise, Queensland, Australia', '5/13 Julie Street, Crestmead, Southern', '5/218 Padstow Road, Eight Mile Plains, Brisbane South', '5/221 Christine Avenue, Varsity Lakes, Gold Coast', '50 Sherwood Road, Toowong, Brisbane West', '503 St Pauls Terrace, Fortitude Valley, Brisbane Central', '508 Vulture Street, East Brisbane, Brisbane East', '52 Commercial Road, Fortitude Valley, Brisbane Central', '52 Currumbin Creek Road, Currumbin Waters, Queensland, Australia', '52 Pier Avenue, Shorncliffe, Brisbane North', '53 Aerodrome Road, Maroochydore, Sunshine Coast', '549 Underwood Road, Rochedale South, Queensland, Australia', '550 Stanley Street, Woolloongabba, Brisbane South', '56 Scarborough Street, Southport, Queensland, Australia', '563 Fairfield Road, Yeronga, Brisbane South', '569 Old Cleveland Road, Camp Hill, Brisbane East', '569 Old Cleveland Road, Camp Hill, Queensland, Australia', '579 Ashmore Road, Molendinar, Queensland, Australia', '59 Skylark Street, Inala, Brisbane West', '59-63 Raceview Street, Raceview, Queensland, Australia', '590 Mount Gravatt-Capalaba Road, Wishart, Queensland, 4122, Australia', '595 Wynnum Road, Morningside, Brisbane East', '6 Kingfisher Drive, Peregian Beach, Sunshine Coast', '6 Seaview Terrace, Moffat Beach, Sunshine Coast', '6/6 Railway Street, Gatton, Western', '6/75 Braun Street, Deagon, Queensland, Australia', '60 Barracks Road, Cannon Hill, Brisbane East', '61 Grand Plaza Drive, Browns Plains, Brisbane South', '61 Hastings Street, Noosa Heads, Sunshine Coast', '63 Riding Road, Hawthorne, Brisbane East', '66 Teemangum Street, Currumbin, Gold Coast', '660 Brunswick Street, New Farm, Brisbane Central', '67 Ferny Avenue, Surfers Paradise, Queensland, Australia', '67 Wilkie Street, Yeerongpilly, Brisbane South', '69 High Street, Russell Island, Queensland, Australia', '7 Eggersdorf Road, Ormeau, Queensland, Australia', '7 Logan Rd, Woolloongabba, Brisbane South', '7/8 Plaza Shopping Centre Spencer St, Gatton, Western', '70 Albany Creek Road, Albany Creek, Brisbane North', '70 Beaudesert-Nerang Road, Nerang, Queensland, Australia', '70 Remembrance Drive, Surfers Paradise, Queensland, Australia', '72 Bulcock Street, Caloundra, Sunshine Coast', '721 Seventeen Mile Rock Road, Jindalee, Brisbane West', '73 Molloy Road, Cannon Hill, Brisbane East', '74 Nerang-Beaudesert Road, Nerang, Gold Coast', '75 T.E. Peters Drive , Broadbeach, Gold Coast', '761 Sandgate Road, Clayfield, Brisbane North', '77 Anzac Avenue, Redcliffe, Northern', '771 Stanley Street, Woolloongabba, Brisbane South', '78-84 Frank Street, Labrador, Gold Coast', '79 Logan River Road, East Beenleigh, Southern', '79 Merthyr Road, New Farm, Brisbane Central', '7a Cavill Court, Orchid Avenue, Surfers Paradise, Gold Coast', '8/620 Moggill Rd, Chapel Hill, Brisbane West', '80 Albert Street, Brisbane , Brisbane Central', '800 Beenleigh Road, Runcorn, Brisbane South', '82 Breton Street, Sunnybank, Brisbane South', '82 Pinelands Road, Sunnybank, Brisbane South', '82 Vulture Street, West End, Queensland, Australia', '83 Hardgrave Road, West End (Brisbane City), Brisbane South', '83 Lytton Road, East Brisbane, Brisbane East', '836 Old Cleveland Rd, Carina, Brisbane East', '841 Ipswich Road, Moorooka, Queensland, Australia', '85 Boundary Street, West End (Brisbane City), Brisbane South', '85 Enoggera Road, Newmarket, Queensland, Australia', '85 Perth Street, South Toowoomba, Queensland, Australia', '85 The Esplanade, Mooloolaba, Sunshine Coast', '86 Rainbow Street, Sandgate, Queensland, Australia', '87-91 Broadwater Avenue, Hope Island, Queensland, Australia', '881 Old Cleveland Road, Carina, Brisbane East', '887 Lytton Road, Murarrie, Queensland, Australia', '896 Boundary Road, Coopers Plains, QLD, 4108, Australia', '8B/803 Stanley Street, Woolloongabba, Queensland, Australia', '9 Blyth Road, Murrumba Downs, Northern', '9 Elizabeth Avenue, Clontarf (Moreton Bay Regional), Northern', '9 Hamilton Avenue, Surfers Paradise, Queensland, Australia', '9 King Street, Maroochydore, Sunshine Coast', '9 Sherwood Road, Toowong, Brisbane West', '902 Mt Gravatt-Capalaba Road, Mackenzie (Brisbane City), Eastern', '91 Queen Street, Brisbane , Brisbane Central', '91-97 Noosa Drive, Noosa Heads, Sunshine Coast', '922 Nambour Connection Road, Nambour, Queensland, Australia', '94 Boundary Street, West End (Brisbane City), Brisbane South', '94 Cook Street, Oxley, Brisbane South', '946-948 David Low Way, Marcoola, Sunshine Coast', '95 Redcliffe Parade, Redcliffe, Queensland, Australia', '965 Wynnum Road, Cannon Hill, Brisbane East', '967 Logan Road, Holland Park West, Queensland, Australia', '97 Albert Street, Brisbane , Brisbane Central', '97 Brisbane Street, Beaudesert, Queensland, Australia', '98-110 Alexandra Parade, Alexandra Headland, Sunshine Coast', '99 Creek Street, Brisbane , Brisbane Central', '99 Juliette Street and Earl Street, Greenslopes, Queensland, Australia', '99 Scarborough Street, Southport, Gold Coast', 'Abbotsford Road, Bowen Hills, Brisbane Central', 'Aberdeen Parade, Boondall, Brisbane North', 'Aberdeen Street North, Boondall, Brisbane North', 'Abuklea Street, Newmarket, Brisbane North', 'Adams Street, Deagon, Brisbane North', 'Adams Street, Deagon, Northern', 'Aerodrome Road, corner Wirraway Street, Maroochydore, Sunshine Coast', 'Airport Drive, Airport (Brisbane), Brisbane East', 'Alamein Street, Beenleigh, Southern', 'Ann Street, Brisbane , Brisbane Central', 'Ardoyne Road, Oxley, Brisbane South', 'Ashgrove Shopping Centre, 16 Ashgrove Avenue, Ashgrove, Brisbane North', 'Auchenflower Terrace, Auchenflower , Brisbane West', 'Auchenflower Terrace, Auchenflower, Brisbane West', 'Aust Catholic University, Nudgee Rd, Banyo, Brisbane North', 'Australia Fair, 42 Marine Parade, Southport, Queensland, Australia', 'Australia Fair, Scarborough Street, Southport, Gold Coast', 'Bailey Road, corner Birkdale Road, Birkdale, Eastern', 'Barnsdale Place, Greenslopes, Brisbane South', 'Bayberry Lane, Robina, Gold Coast', 'Beams Road, Carseldine, Brisbane North', 'Beenleigh Road, Runcorn, Brisbane South', 'Beerwah Parade, Beerwah, Northern', 'Bell Street, Ipswich, Western', 'Belmont Shopping Plaza, Cnr Burstall Ave and Belmont Road, Belmont, Brisbane East', 'Blackall Street, Woombye, Sunshine Coast', 'Blackstone Road, corner South Station Road, Silkstone, Western', 'Blaker Road, Grovely, Brisbane North', 'Blaker road, Grovely, Brisbane North', 'Booval Fair, Brisbane Road, Booval, Queensland, Australia', 'Bowen Bridge Road, Herston, Brisbane North', 'Bracken Ridge Plaza Shopping Centre, Corner Telegraph and Norris Roads, Bracken Ridge, Brisbane North', 'Bribie Island Shopping Centre, Bongaree, Queensland, Australia', 'Brisbane Road, Ebbw Vale, Western', 'Brisbane Square, George Street, Brisbane , Brisbane Central', 'Brooke Street, Rocklea, Brisbane South', 'Brookside Shopping Centre, Mitchelton, Brisbane North', 'Brookside Shopping Centre, Osborne Road, Mitchelton, Brisbane North', 'Brunswick Street, Fortitude Valley, Brisbane Central', 'Building 12, Room 108, Salisbury Road, Ipswich, Western', 'Building 8123, Morrison Hall, Inner Ring Road, Gatton, Western', 'Building G.40, Griffith University Gold Coast Campus, Parklands Drive, Southport, Queensland, Australia', 'Burpengary Road, Burpengary, Northern', 'Cameron Parade, Wynnum, Eastern', 'Cannon Hill Shopping Centre, Creek Road, Cannon Hill, Brisbane East', 'Capalaba Park Shopping Centre, Redland Bay Rd, Capalaba, Eastern', 'Carseldine Central, 735 Beams Road, Carseldine, Brisbane North', 'Cavendish Road, Coorparoo, Brisbane East', 'Centenary Square, Currie St, Nambour, Sunshine Coast', 'Central Concourse, Central Station, Ann Street , Brisbane , Brisbane Central', 'Central station (platform 1/2), Ann Street, Brisbane , Brisbane Central', 'Central station (platform 3/4), Ann Street, Brisbane , Brisbane Central', 'Central station (platform 5/6), Ann Street , Brisbane , Brisbane Central', 'Centro North Shore, David Low Way, Pacific Paradise, Sunshine Coast', 'Chermside Street, Hendra, Brisbane North', 'Chevallum Road, Palmwoods (Sunshine Coast Regional), Sunshine Coast', 'Chopstix Arcade, 210 Wickham Street, Fortitude Valley, Brisbane Central', 'Church Street, Beerburrum, Northern', 'Cinderella Drive, Springwood, Queensland, Australia', 'Civic Fair Shopping Centre, 280 Newnham Rd, Wishart, Brisbane South', 'Civic Way, Nambour, Sunshine Coast', 'Cnr Brisbane Tce &amp;amp; Weedman St, Redbank, Western', 'Cnr Coronation Road and Middle Road, Boronia Heights, Southern', 'Cnr Drews and Clarks Road, Loganholme, Queensland, Australia', 'Cnr Edward and Ann Street, Brisbane , Brisbane Central', 'Cnr Gympie Road and Nundah Street, Kedron, Brisbane North', 'Cnr Main Street and Mary Ring Drive, Samford Village, Brisbane North', 'Cnr Nicklin Way and Bellara Drive, Currimundi, Sunshine Coast', 'Cnr Old Cleveland Rd and Mains Road, Coorparoo, Brisbane East', 'Cnr Ryan &amp;amp; Holland Street, Northgate, Brisbane North', 'Cnr Service Rd and Mandew St, Loganholme, Southern', 'Cnr Third Avenue and Macarthy Road, Marsden', 'Cnr Village and Victory Road, Bongaree, Bribie Island, Northern', 'Cnr Watt &amp;amp; Ruthven Street, Corinda, Brisbane South', 'Collins Street, Nundah, Brisbane North', 'Compton Road, corner Gowan Road, Sunnybank Hills, Brisbane South', 'Compton Road, corner North Road, Woodridge, Southern', 'Conavalla Street, Ferny Grove, Brisbane North', 'Corner Forest Lake Boulevard and Woogaroo Street, Forest Lake, Brisbane West', 'Corner Gold Coast Highway and Hooker Boulevard, Broadbeach, Queensland, Australia', 'Corner Gold Coast Highway and Monaco Street, Surfers Paradise, Queensland, Australia', 'Corner Gold Coast Highway and Queensland Avenue, Broadbeach, Queensland, Australia', 'Corner Gold Coast Highway and Tedder Avenue, Main Beach, Queensland, Australia', 'Corner Nerang Street and Cougal Street, Southport, Queensland, Australia', 'Corner Nerang Street and Scarborough Street, Southport, Queensland, Australia', 'Corner Old Northern Rd and Albany Forest Drive, Albany Creek, Brisbane North', 'Corner Parklands Drive and Engineering Drive, Southport, Queensland, Australia', 'Corner Parklands Drive and University Drive, Southport, Queensland, Australia', 'Corner Queen Street and Ada Bell Way, Southport, Queensland, Australia', 'Corner Scarborough Street and Queen Street, Southport, Queensland, Australia', 'Corner Scottsdale Drive and Cormandel Lane, Varsity Lakes, Gold Coast', 'Corner Surfers Paradise Bouelvard and Ocean Avenue, Surfers Paradise, Queensland, Australia', 'Corner Surfers Paradise Boulevard and Cavill Avenue, Surfers Paradise, Queensland, Australia', 'Corner Surfers Paradise Boulevard and Clifford Street, Surfers Paradise, Queensland, Australia', 'Corner Surfers Paradise Boulevard and Cypress Avenue, Surfers Paradise, Queensland, Australia', 'Corner Surfers Paradise Boulevard and Vista Street, Surfers Paradise, Queensland, Australia', 'Corner Wardoo Street and Queen Street, Southport, Queensland, Australia', 'Corner Wharf &amp;amp; Bay Streets, Tweed Heads, Gold Coast', 'Cribb Street, Landsborough, Sunshine Coast', 'Cullimore Street, Bald Hills, Brisbane North', 'Customer Service Centre, A block, Windemere Road, Alexandra Hills, Eastern', 'Customer Service Centre, F block, 1030 Cavendish Road, Mount Gravatt, Brisbane South', 'Darra Station Road, Darra, Brisbane West', 'Days Road, corner Kedron Brook Road, Grange, Brisbane North', 'Dixon Street, Sunnybank, Brisbane South', 'Dreamworld Parkway, Coomera, Queensland, Australia', 'Eagle Street, Brisbane , Brisbane Central', 'Easy T Shopping Centre, Scottsdale Drive &amp; Christine Avenue, Robina, Queensland, Australia', 'Eddy Avenue, Edens Landing, Southern', 'Edith Road, corner Tingal Road, Wynnum, Eastern', 'Eight Mile Plains Busway Station, Eight Mile Plains, Brisbane South', 'Eildon Road, Windsor, Brisbane North', 'Elm Street, Cooroy, Sunshine Coast', 'Endeavour Boulevard and The Corso, North Lakes, Queensland, Australia', 'English Street, Elimbah, Northern', 'Ernest Street, Manly, Brisbane East', 'Fairfield Road, Yeronga, Brisbane South', 'Flinders Parade, North Lakes, Queensland, Australia', 'Forest Lake Village Shopping Centre, Forest Lake Boulevard, Forest Lake, Brisbane West', 'Gillingham Street, Buranda, Brisbane South', 'Gladys Street, Coorparoo, Brisbane East', 'Glenalva Terrace, Enoggera, Brisbane North', 'Gold Coast Airport, Airport (Gold Coast - Coolangatta), Gold Coast', 'Gold Coast Airport, Eastern Avenue, Bilinga, Queensland, Australia', 'Gold Coast Highway, corner Fifth Avenue, Burleigh Heads, Gold Coast', 'Grace Street, Wulkuraka, Western', 'Grand Plaza Shopping Centre, Browns Plains Road, Browns Plains, Queensland, Australia', 'Grey Street, South Brisbane, Brisbane Central', 'Griffith Street, Coolangatta, Queensland, Australia', 'Griffith Uni Logan Campus, University Drive, Meadowbrook, Southern', 'Griffith Uni Mt Gravatt Campus, Messines Ridge Rd, Mount Gravatt, Brisbane South', 'Griffith University, Parklands Drive, The Link Building, Gold Coast Campus, Southport, Gold Coast', 'Ground Floor, 70 Eagle Street, Brisbane , Brisbane Central', 'Henley Street, Coopers Plains, Brisbane South', 'Holland Park Busway Station, Holland Park, Brisbane South', 'Honour Avenue, Graceville, Brisbane South', 'Honour Avenue, Sherwood (Brisbane City), Brisbane South', 'Horton Parade, Maroochydore, Queensland, Australia', 'Hospital Boulevard, Southport, Queensland, Australia', 'Hudson Street, Wooloowin , Brisbane North', 'Hudson Street, Wooloowin, Brisbane North', 'Humpybong Esplanade, Redcliffe, Queensland, Australia', 'Indooroopilly Shopping Centre, Moggill Road, Indooroopilly, Queensland, Australia', 'Junction Road, Eagle Junction, Brisbane North', 'K-Mart Plaza, Creek Road, Cannon Hill, Brisbane East', 'Karrabin-Rosewood Road, Karrabin, Western', 'Kessels Road, Community Centre, Griffith University, Nathan, Brisbane South', 'Kingsford Smith Drive, corner and Racecourse Road, Hamilton, Brisbane North', 'Kingston Palms Shopping Centre, Cnr Kingston Road and Juers Street, Kingston, Southern', 'Kingston Road, Slacks Creek, Queensland, Australia', 'Kingston Road, corner Wanda Street, Kingston', 'Kirra Beach Plaza, Musgrave Road, corner Douglas Road, Kirra, Gold Coast', 'Lake Apex Drive, Gatton, Western', 'Lakefield Drive, North Lakes, Queensland, Australia', 'Lamington Avenue, Doomben, Brisbane North', 'Level 3, Indooroopilly Shoppingtown, Indooroopilly, Brisbane West', 'Logan Hyperdome, corner Pacific Highway and Bryants Road, Loganholme, Southern', 'Lower Level Myer Centre, Queen Street, Brisbane , Brisbane Central', 'Lower Level, Westfield Carindale, Creek Road, Carindale, Queensland, Australia', 'Main Beach Parade, Main Beach, Queensland, Australia', 'Mains Road, corner McCulloch Street, Sunnybank, Brisbane South', 'Market Hall Robina Town Centre, Robina Town Centre Drive, Robina, Queensland, Australia', 'Mason Street, Dinmore, Western', 'Matthew Terrace, Caboolture, Northern', 'Matthew Terrace, corner James Street, Caboolture, Northern', 'McConaghy Street, Mitchelton, Brisbane North', 'McGill Avenue, Ascot (Brisbane City), Brisbane North', 'McGregor Street, Upper Mount Gravatt, Brisbane South', 'Merton Street, East Ipswich, Western', 'Midway Street, Fairfield, Brisbane South', 'Mildmay Street, Fairfield, Brisbane South', 'Milky Way Street, Kingston, Southern', 'Milton Road, Milton, Brisbane West', 'Mining Street, Bundamba, Western', 'Moggill Ferry Road, Riverview (Ipswich City), Western', 'Moggill Ferry road, Riverview (Ipswich City), Western', 'Mooloolah Connection Road, Mooloolah Valley, Sunshine Coast', 'Morris Towers, 149 Wickham Terrace , Spring Hill, Brisbane North', 'Mt Gravatt-Capalaba Road, corner Newnham Road, Wishart, Brisbane South', 'Mt Ommaney Shopping Centre, 171 Dandenong Road, Mount Ommaney, Brisbane West', 'Murarrie Road, Murarrie, Brisbane East', 'Murrarie Road, Murarrie, Brisbane East', 'Napier Street, Birkdale, Eastern', 'Narangba Road, Dakabin, Northern', 'Ned Hanlon Building, Royal Brisbane Hospital, Herston, Brisbane North', 'Newmarket Road, Wilston, Brisbane North', 'Nicklin Way, corner Aquatic Drive, Warana, Sunshine Coast', 'Norfolk Village Shopping Centre, 174-178 Pascoe Road, Ormeau, Southern', 'Normanby Busway Station, Red Hill (Brisbane City), Brisbane North', 'OKeefe Street, Buranda, Brisbane South', 'Ocean Avenue, Surfers Paradise, Queensland, Australia', 'Old North Road, Warner, Queensland, Australia', 'Olivia Avenue, Salisbury, Brisbane South', 'Oxley Drive, Biggera Waters, Queensland, Australia', 'PA Hospital, Ipswich Road, Woolloongabba, Brisbane South', 'Pacific Fair Shopping Centre, Broadbeach Waters, Queensland, Australia', 'Park Ridge Shopping Village corner Mt Lindesay Hwy and Park Ridge Road, Park Ridge, Southern', 'Park Street, Banyo, Brisbane North', 'Park Village Shopping Centre, 92 Horizon Drive, Middle Park, Brisbane West', 'Peninsula Fair Shopping Centre, Anzac Ave, Kippa-Ring, Northern', 'Pick n Pay Hypermarket, Albany Creek Rd, Aspley, Brisbane North', 'Point Cartwright Drive, Buddina, Queensland, Australia', 'Progress Road, Richlands, Brisbane West', 'Q1 Building, 9 Hamilton Avenue, Surfers Paradise, Queensland, Australia', 'Qld Conservatorium of Music, 140 Grey Street, South Brisbane, Brisbane South', 'Quarry Street, Woolloongabba, Brisbane South', 'Queen Street Kiosk, Brisbane , Brisbane Central', 'Queen Street Mall, Myer Centre (level A), Brisbane , Brisbane Central', 'Queen Street Mall, Myer Centre (level E), Brisbane , Brisbane Central', 'Queen Street, Brisbane , Brisbane Central', 'Railway Avenue, Bray Park (Moreton Bay Regional), Northern', 'Railway Avenue, Indooroopilly, Brisbane West', 'Railway Parade, Geebung, Brisbane North', 'Railway Parade, Shorncliffe, Brisbane North', 'Railway Parade, Thorneside, Eastern', 'Railway Parade, Trinder Park, Southern', 'Railway Place, Alderley, Brisbane North', 'Railway Reserve 11 Foxwell Road, Coomera, Gold Coast', 'Railway Street, Nudgee, Brisbane North', 'Railway Street, Rosewood, Western', 'Railway Terrace, Dutton Park, Brisbane South', 'Railway Terrace, Lota, Brisbane East', 'Rainbow Street, Sandgate, Northern', 'Reed Street, Glasshouse Mountains, Northern', 'Reflection Tower Two, Marine Parade, Coolangatta, Queensland, Australia', 'Riverlink Shopping Centre, North Ipswich, Queensland, Australia', 'Roma Street Busway Station, Brisbane , Brisbane Central', 'Roma Street, Brisbane , Brisbane Central', 'Ronald Street, Wynnum, Eastern', 'Rosebed Street, Eudlo, Sunshine Coast', 'Royal Childrens Hospital, Herston, Brisbane North', 'Ryan Street, Goodna, Western', 'Ryan Street, corner Holland Street, Northgate, Brisbane North', 'Samsonvale Road, corner Old North Road, Bray Park (Moreton Bay Regional), Northern', 'Sandgate Road, Toombul, Brisbane North', 'Sandy Creek Road, Gympie North, Sunshine Coast', 'Scanlan Road, Mitchelton, Brisbane North', 'Settlement Road, Great Western Super Centre, Keperra, Brisbane North', 'Sherwood Road, Toowong, Brisbane West', 'Shop 1, 150 Selina Road , Wynnum, Eastern', 'Shop 1, 152 Alexandra Parade, Alexandra Headlands, Sunshine Coast', 'Shop 1, 158 Boundary St, West End (Brisbane City), Brisbane South', 'Shop 1, 183 Bennetts Road, Norman Park, Brisbane East', 'Shop 1, 2239 Gold Coast Highway, Mermaid Beach, Gold Coast', 'Shop 1, 3 College Street, North Lakes, Queensland, Australia', 'Shop 1, 39 Sherwood Road, Toowong, Brisbane West', 'Shop 1, 40 Creek Street, Brisbane , Brisbane Central', 'Shop 1, 589 Logan Road, Greenslopes, Brisbane South', 'Shop 1, 66 Curragundi Road, Jindalee, Queensland, Australia', 'Shop 1, 99 Kedron Brook Road, Wilston, Brisbane North', 'Shop 1, Redbank Plaza Shopping Centre, Collingwood Drive, Redbank, Western', 'Shop 1/209 Given Terrace, Paddington, Brisbane North', 'Shop 1/26 Sunshine Beach Rd, Noosa Heads, Sunshine Coast', 'Shop 10, 974 Waterworks Road , The Gap (Brisbane City), Brisbane North', 'Shop 10, Ashmore City Shopping Centre, Southport-Nerang and Currumburra Roads, Ashmore, Gold Coast', 'Shop 10, Belair Retail Centre, Gold Coast Highway,Broadbeach, Broadbeach, Gold Coast', 'Shop 1</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -757,14 +782,23 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-27.4818</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>7787</v>
+      </c>
+      <c r="S6" t="n">
         <v>756</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>7786</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>['-26.1627', '-26.366181', '-26.386766', '-26.386933', '-26.387332', '-26.3921', '-26.39659', '-26.3971', '-26.398385', '-26.3986', '-26.399192', '-26.4014', '-26.4158', '-26.4171', '-26.4177', '-26.4184', '-26.4187', '-26.475572', '-26.4812', '-26.529825', '-26.5309', '-26.559987', '-26.6007', '-26.61413', '-26.616492', '-26.6221', '-26.6258', '-26.6278', '-26.6547', '-26.654875', '-26.654877', '-26.6549', '-26.6605', '-26.6608', '-26.6624', '-26.66553', '-26.668315', '-26.680953', '-26.682702', '-26.6841', '-26.687894', '-26.6886', '-26.70291', '-26.703187', '-26.7152', '-26.718071', '-26.718545', '-26.7197', '-26.7259', '-26.759023', '-26.7653', '-26.773831', '-26.7899', '-26.80477', '-26.804983', '-26.8084', '-26.808765', '-26.821495', '-26.857889', '-26.857894', '-26.8997', '-26.959839', '-27.0113', '-27.061943', '-27.064302', '-27.06552', '-27.0683', '-27.076', '-27.0833', '-27.083338', '-27.083347', '-27.1098', '-27.1123', '-27.154338', '-27.163063', '-27.163078', '-27.173203', '-27.19383', '-27.196441', '-27.202777', '-27.2029', '-27.2173', '-27.220542', '-27.225499', '-27.2256', '-27.227944', '-27.2285', '-27.2305', '-27.230745', '-27.232057', '-27.238184', '-27.238653', '-27.2398', '-27.244551', '-27.2501', '-27.250229', '-27.2609', '-27.2678', '-27.2732', '-27.2816', '-27.2915', '-27.2971', '-27.299357', '-27.299367', '-27.3069', '-27.307691', '-27.310447', '-27.3118', '-27.32111', '-27.321362', '-27.321372', '-27.3222', '-27.324331', '-27.3269', '-27.3273', '-27.3284', '-27.330219', '-27.330283', '-27.3307', '-27.3324', '-27.337817', '-27.339', '-27.342044', '-27.3453', '-27.346377', '-27.346405', '-27.3482', '-27.348448', '-27.349545', '-27.3507', '-27.3527', '-27.3581', '-27.358375', '-27.3593', '-27.3595', '-27.3626', '-27.363933', '-27.363956', '-27.364', '-27.3656', '-27.3689', '-27.372756', '-27.3749', '-27.374986', '-27.374995', '-27.3753', '-27.379966', '-27.3829', '-27.382901', '-27.384486', '-27.3852', '-27.3854', '-27.3893', '-27.3903', '-27.3917', '-27.3936', '-27.3973', '-27.4003', '-27.4008', '-27.4009', '-27.4013', '-27.4028', '-27.403', '-27.4042', '-27.4045', '-27.405', '-27.406636', '-27.4073', '-27.408392', '-27.4086', '-27.409', '-27.409867', '-27.410027', '-27.4115', '-27.4121', '-27.415092', '-27.4151', '-27.4175', '-27.4193', '-27.42', '-27.4203', '-27.422', '-27.4222', '-27.422296', '-27.422652', '-27.423433', '-27.423443', '-27.4247', '-27.424959', '-27.4266', '-27.429214', '-27.429409', '-27.429438', '-27.4314', '-27.4322', '-27.4328', '-27.4352', '-27.436058', '-27.4362', '-27.4368', '-27.4371', '-27.4372', '-27.438428', '-27.438633', '-27.4397', '-27.441', '-27.4421', '-27.44285', '-27.4447', '-27.4449', '-27.445', '-27.4451', '-27.445162', '-27.445181', '-27.4452', '-27.4455', '-27.445599', '-27.445752', '-27.446136', '-27.4462', '-27.4474', '-27.4475', '-27.449758', '-27.450247', '-27.451', '-27.4518', '-27.452', '-27.4533', '-27.4536', '-27.454', '-27.454744', '-27.4554', '-27.455465', '-27.4567', '-27.456767', '-27.45679', '-27.4568', '-27.456839', '-27.457', '-27.4571', '-27.4574', '-27.457771', '-27.458', '-27.4589', '-27.458927', '-27.459', '-27.4601', '-27.4611', '-27.4616', '-27.462', '-27.4632', '-27.4646', '-27.4648', '-27.4649', '-27.4652', '-27.4653', '-27.465367', '-27.465376', '-27.465434', '-27.465905', '-27.466', '-27.4661', '-27.466104', '-27.4662', '-27.4664', '-27.4668', '-27.4669', '-27.466974', '-27.4671', '-27.467113', '-27.467361', '-27.4674', '-27.4675', '-27.468', '-27.4683', '-27.4685', '-27.4686', '-27.4687', '-27.468872', '-27.4689', '-27.4693', '-27.4694', '-27.469414', '-27.469461', '-27.46957', '-27.4697', '-27.4701', '-27.4702', '-27.4703', '-27.4704', '-27.4705', '-27.470582', '-27.4706', '-27.470755', '-27.4709', '-27.471', '-27.4711', '-27.4712', '-27.4713', '-27.4714', '-27.4715', '-27.4721', '-27.472178', '-27.472558', '-27.4732', '-27.473771', '-27.4744', '-27.474857', '-27.475372', '-27.4755', '-27.4757', '-27.4759', '-27.476547', '-27.476557', '-27.4769', '-27.477569', '-27.4778', '-27.4781', '-27.4785', '-27.4786', '-27.47948', '-27.47966', '-27.4797', '-27.479865', '-27.4807', '-27.48086', '-27.4814', '-27.4818', '-27.4827', '-27.483568', '-27.4842', '-27.484423', '-27.4845', '-27.4847', '-27.4848', '-27.48533', '-27.485334', '-27.4854', '-27.4857', '-27.486', '-27.4864', '-27.486614', '-27.487', '-27.487198', '-27.4875', '-27.4877', '-27.488', '-27.4897', '-27.4905', '-27.491928', '-27.492742', '-27.492889', '-27.493', '-27.4936', '-27.4937', '-27.493933', '-27.493943', '-27.494284', '-27.4944', '-27.4955', '-27.4963', '-27.496571', '-27.496576', '-27.496863', '-27.497029', '-27.497168', '-27.497447', '-27.4976', '-27.497963', '-27.498', '-27.498036', '-27.4982', '-27.498635', '-27.499', '-27.4992', '-27.499652', '-27.4998', '-27.500757', '-27.5025', '-27.5026', '-27.502998', '-27.503', '-27.503265', '-27.503369', '-27.504137', '-27.504502', '-27.505594', '-27.506749', '-27.5072', '-27.5074', '-27.5085', '-27.509', '-27.5095', '-27.5102', '-27.510946', '-27.5112', '-27.511648', '-27.5121', '-27.5146', '-27.5163', '-27.5178', '-27.5184', '-27.5195', '-27.519645', '-27.5199', '-27.5213', '-27.521484', '-27.5217', '-27.5219', '-27.5231', '-27.523145', '-27.5239', '-27.523933', '-27.524102', '-27.52421', '-27.524219', '-27.5246', '-27.5253', '-27.5255', '-27.5258', '-27.5275', '-27.5311', '-27.5316', '-27.531895', '-27.5324', '-27.5326', '-27.5341', '-27.534681', '-27.535', '-27.53513', '-27.5355', '-27.5373', '-27.5388', '-27.5396', '-27.543033', '-27.543289', '-27.5447', '-27.545804', '-27.5459', '-27.5466', '-27.547', '-27.5481', '-27.5483', '-27.54897', '-27.549068', '-27.550683', '-27.5525', '-27.5527', '-27.5529', '-27.5532', '-27.555213', '-27.55529', '-27.555737', '-27.5559', '-27.555952', '-27.558271', '-27.5612', '-27.561953', '-27.5622', '-27.5631', '-27.5634', '-27.5639', '-27.5641', '-27.5659', '-27.566231', '-27.567043', '-27.5684', '-27.569609', '-27.570008', '-27.5706', '-27.571407', '-27.572561', '-27.574419', '-27.57471', '-27.575481', '-27.576019', '-27.576024', '-27.57848', '-27.5792', '-27.5808', '-27.582671', '-27.58269', '-27.584466', '-27.5854', '-27.5865', '-27.5874', '-27.589', '-27.590132', '-27.5902', '-27.5915', '-27.5924', '-27.5938', '-27.595', '-27.595882', '-27.5964', '-27.596442', '-27.5979', '-27.597943', '-27.5983', '-27.59889', '-27.599', '-27.5995', '-27.6014', '-27.6018', '-27.6033', '-27.6045', '-27.6047', '-27.6049', '-27.6059', '-27.6061', '-27.607', '-27.6073', '-27.6075', '-27.607519', '-27.608385', '-27.6088', '-27.609357', '-27.60946', '-27.61', '-27.610074', '-27.6109', '-27.6112', '-27.6125', '-27.6129', '-27.6135', '-27.6144', '-27.614579', '-27.6147', '-27.6148', '-27.61511', '-27.615168', '-27.6187', '-27.620445', '-27.624', '-27.6255', '-27.6266', '-27.628126', '-27.6284', '-27.629638', '-27.630829', '-27.6314', '-27.6334', '-27.634837', '-27.637003', '-27.6382', '-27.6413', '-27.6419', '-27.6427', '-27.6429', '-27.642944', '-27.6432', '-27.6449', '-27.645243', '-27.648638', '-27.648659', '-27.651875', '-27.6533', '-27.65422', '-27.6547', '-27.6574', '-27.660196', '-27.660298', '-27.6603', '-27.660306', '-27.660548', '-27.660573', '-27.6606', '-27.662644', '-27.6639', '-27.664117', '-27.664398', '-27.664773', '-27.666518', '-27.671', '-27.6734', '-27.6735', '-27.674276', '-27.674482', '-27.6776', '-27.678743', '-27.680633', '-27.688452', '-27.688471', '-27.690521', '-27.6924', '-27.696258', '-27.6974', '-27.6982', '-27.7008', '-27.7078', '-27.7095', '-27.7134', '-27.7162', '-27.717115', '-27.717125', '-27.7383', '-27.7444', '-27.7639', '-27.78611', '-27.7991', '-27.830644', '-27.84369', '-27.8535', '-27.868739', '-27.878122', '-27.878307', '-27.880533', '-27.885812', '-27.912639', '-27.913145', '-27.923565', '-27.9258', '-27.926', '-27.926171', '-27.9272', '-27.931162', '-27.931558', '-27.931705', '-27.946272', '-27.947034', '-27.9487', '-27.959043', '-27.96055', '-27.96094', '-27.962054', '-27.962918', '-27.962972', '-27.963057', '-27.966594', '-27.967446', '-27.967624', '-27.968746', '-27.969082', '-27.9695', '-27.970143', '-27.970411', '-27.970573', '-27.970686', '-27.971077', '-27.971204', '-27.973236', '-27.97349', '-27.973494', '-27.973923', '-27.977936', '-27.979071', '-27.979344', '-27.979743', '-27.981359', '-27.9821', '-27.982328', '-27.984646', '-27.985951', '-27.9871', '-27.98768', '-27.9891', '-27.989739', '-27.99073', '-27.991322', '-27.993062', '-27.993107', '-27.9933', '-27.993316', '-27.9936', '-27.9943', '-27.995222', '-27.995515', '-27.995758', '-27.996317', '-27.996461', '-27.997265', '-27.997786', '-27.997806', '-27.998069', '-27.998162', '-27.999044', '-27.999085', '-27.999151', '-27.999278', '-27.999348', '-27.999546', '-28.000986', '-28.001165', '-28.001446', '-28.001657', '-28.001777', '-28.001927', '-28.00215', '-28.002304', '-28.003255', '-28.003694', '-28.005486', '-28.005792', '-28.006013', '-28.006222', '-28.006307', '-28.00749', '-28.009103', '-28.009639', '-28.010543', '-28.011257', '-28.012158', '-28.013906', '-28.015495', '-28.016302', '-28.016508', '-28.017705', '-28.024987', '-28.026559', '-28.027816', '-28.02804', '-28.028599', '-28.029247', '-28.029567', '-28.030702', '-28.031868', '-28.033787', '-28.035402', '-28.035645', '-28.035763', '-28.035828', '-28.036277', '-28.040189', '-28.045714', '-28.0465', '-28.049584', '-28.0587', '-28.065476', '-28.0714', '-28.077591', '-28.078462', '-28.080915', '-28.084951', '-28.085385', '-28.088982', '-28.090215', '-28.094794', '-28.096499', '-28.096893', '-28.109083', '-28.118114', '-28.119505', '-28.1223', '-28.135343', '-28.1355', '-28.14411', '-28.165645', '-28.16626', '-28.1678', '-28.168261', '-28.16833', '-28.169044', '-28.171', '-28.171647', '-28.207807', '0']</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -818,18 +852,23 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>153.029</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>7329</v>
+      </c>
+      <c r="S7" t="n">
         <v>603</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>153.029</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>7328</v>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>['0', '151.930743', '151.954786', '151.968969', '152.270886', '152.277841', '152.279529', '152.337285', '152.593', '152.63', '152.665', '152.668', '152.686', '152.709', '152.732', '152.746', '152.751467', '152.754', '152.756307', '152.759836', '152.761', '152.774425', '152.775', '152.789748', '152.789791', '152.789796', '152.79', '152.804549', '152.804571', '152.822', '152.832', '152.833', '152.851', '152.85505', '152.868', '152.871', '152.872', '152.872206', '152.886495', '152.886854', '152.897662', '152.902', '152.902834', '152.91', '152.911', '152.912', '152.918', '152.919', '152.921474', '152.922', '152.923094', '152.923292', '152.924', '152.929', '152.930148', '152.935', '152.935247', '152.935947', '152.936888', '152.938', '152.938354', '152.939', '152.94', '152.943656', '152.946', '152.946558', '152.948', '152.948024', '152.949', '152.949775', '152.95', '152.950648', '152.951', '152.952', '152.953', '152.954011', '152.954021', '152.956586', '152.957', '152.957107', '152.957113', '152.958', '152.958349', '152.958386', '152.959', '152.959021', '152.959402', '152.96021', '152.960821', '152.961', '152.962', '152.962742', '152.963', '152.964943', '152.966', '152.968', '152.969', '152.969461', '152.972679', '152.972871', '152.972882', '152.973', '152.974', '152.97408', '152.97469', '152.975', '152.976', '152.978784', '152.9788', '152.979294', '152.98', '152.981', '152.982', '152.983', '152.983028', '152.986', '152.986032', '152.986145', '152.986997', '152.987', '152.99', '152.990315', '152.990456', '152.990995', '152.991', '152.99154', '152.992', '152.992052', '152.993', '152.993461', '152.994', '152.995942', '152.996732', '152.996743', '152.998', '152.999', '152.999797', '153.000265', '153.000987', '153.003', '153.005', '153.006', '153.006742', '153.007', '153.007559', '153.010862', '153.011', '153.011644', '153.011654', '153.01192', '153.012', '153.012848', '153.013', '153.014', '153.014624', '153.015', '153.01509', '153.015968', '153.017', '153.017093', '153.017253', '153.017324', '153.017466', '153.018', '153.018268', '153.019', '153.019897', '153.02', '153.020663', '153.021', '153.021132', '153.021835', '153.022', '153.022332', '153.023', '153.02326', '153.02343', '153.023727', '153.024', '153.025', '153.025012', '153.025228', '153.025309', '153.025936', '153.025944', '153.026', '153.026006', '153.026505', '153.026526', '153.026739', '153.027', '153.027863', '153.028', '153.029', '153.029145', '153.029161', '153.029327', '153.03', '153.030513', '153.030874', '153.031', '153.032', '153.032021', '153.032094', '153.033', '153.03302', '153.033095', '153.033842', '153.033977', '153.034', '153.034598', '153.035', '153.035526', '153.036', '153.036245', '153.036824', '153.037', '153.037549', '153.03756', '153.038', '153.038964', '153.039', '153.039182', '153.039488', '153.04', '153.040021', '153.040386', '153.040397', '153.040452', '153.040492', '153.040493', '153.040967', '153.041', '153.041259', '153.041343', '153.04178', '153.042', '153.043', '153.044', '153.044459', '153.04446', '153.045', '153.0452', '153.045734', '153.046', '153.046161', '153.046177', '153.046272', '153.047', '153.04764', '153.048923', '153.049', '153.05', '153.050149', '153.050647', '153.051', '153.052821', '153.053', '153.054', '153.054055', '153.054448', '153.054915', '153.055', '153.056', '153.057', '153.057646', '153.058', '153.059', '153.06', '153.060114', '153.061', '153.061427', '153.061561', '153.061564', '153.061919', '153.062', '153.062414', '153.063', '153.063238', '153.063376', '153.063397', '153.063761', '153.06389', '153.064', '153.064185', '153.064402', '153.064916', '153.065', '153.065128', '153.065223', '153.066', '153.066338', '153.067622', '153.067633', '153.067783', '153.068', '153.068175', '153.069', '153.07', '153.071304', '153.07245', '153.074', '153.074011', '153.075', '153.075345', '153.077', '153.077268', '153.077279', '153.079', '153.079498', '153.08', '153.080204', '153.081', '153.082', '153.08257', '153.083', '153.083098', '153.083234', '153.084', '153.084894', '153.087227', '153.088', '153.088099', '153.088115', '153.089', '153.089098', '153.089572', '153.089624', '153.09', '153.090593', '153.090858', '153.091', '153.091151', '153.091411', '153.091521', '153.091644', '153.092', '153.093399', '153.09351', '153.095', '153.096', '153.096887', '153.098', '153.1', '153.101', '153.101627', '153.101739', '153.10215', '153.102971', '153.104', '153.105', '153.105607', '153.105673', '153.106435', '153.106621', '153.107', '153.107871', '153.108', '153.109', '153.11', '153.112', '153.114', '153.11427', '153.11473', '153.115019', '153.115212', '153.115424', '153.117566', '153.11775', '153.118', '153.119', '153.120058', '153.120477', '153.123', '153.124', '153.124299', '153.124547', '153.124881', '153.125', '153.125012', '153.125323', '153.126', '153.126052', '153.127', '153.128403', '153.129027', '153.13', '153.131188', '153.135425', '153.136', '153.139', '153.142', '153.145', '153.148047', '153.153', '153.153712', '153.154778', '153.156', '153.157087', '153.158635', '153.158762', '153.159', '153.166', '153.169', '153.17', '153.170772', '153.171', '153.172', '153.173', '153.173541', '153.174', '153.177819', '153.18', '153.185', '153.185659', '153.187', '153.188', '153.191099', '153.193', '153.194', '153.201', '153.203', '153.204', '153.204215', '153.204236', '153.206', '153.211', '153.216', '153.218472', '153.218483', '153.221', '153.237809', '153.238894', '153.241914', '153.245', '153.256', '153.258136', '153.265657', '153.265667', '153.267', '153.280957', '153.281', '153.282', '153.282808', '153.283', '153.298', '153.301', '153.308834', '153.313517', '153.314545', '153.318', '153.321239', '153.323605', '153.323755', '153.32816', '153.332', '153.333025', '153.334068', '153.336', '153.339', '153.35', '153.350839', '153.364813', '153.365036', '153.365587', '153.366608', '153.377048', '153.378', '153.379559', '153.379764', '153.38047', '153.380514', '153.380708', '153.380854', '153.381172', '153.381709', '153.382003', '153.382255', '153.383257', '153.384389', '153.385406', '153.387762', '153.387871', '153.390741', '153.391622', '153.393909', '153.399049', '153.399531', '153.39985', '153.401878', '153.403764', '153.403905', '153.407014', '153.407677', '153.408', '153.408303', '153.409', '153.410518', '153.412273', '153.412793', '153.413301', '153.414', '153.414091', '153.414237', '153.414436', '153.414542', '153.414785', '153.415458', '153.415665', '153.415717', '153.415815', '153.418525', '153.418964', '153.419628', '153.420625', '153.422847', '153.423689', '153.423854', '153.423886', '153.42483', '153.424967', '153.425076', '153.426261', '153.426284', '153.426351', '153.426385', '153.426632', '153.426897', '153.426998', '153.42705', '153.427522', '153.427723', '153.427801', '153.427978', '153.428026', '153.428313', '153.428591', '153.428659', '153.428716', '153.428721', '153.428729', '153.42889', '153.42891', '153.428923', '153.428966', '153.428985', '153.429105', '153.429112', '153.429242', '153.429275', '153.429349', '153.429371', '153.429379', '153.429393', '153.42946', '153.429523', '153.429638', '153.429727', '153.429731', '153.429787', '153.42991', '153.429921', '153.430115', '153.430342', '153.430424', '153.430453', '153.430599', '153.430639', '153.430727', '153.43078', '153.43085', '153.430861', '153.431112', '153.431211', '153.431294', '153.431904', '153.431953', '153.432548', '153.432791', '153.434403', '153.435431', '153.436301', '153.438', '153.442285', '153.446451', '153.448477', '153.451783', '153.465528', '153.469333', '153.47051', '153.471363', '153.472', '153.472662', '153.489', '153.509074', '153.512886', '153.528', '153.536129', '153.541951', '153.542848', '153.542908', '153.543691', '153.545211']</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -885,12 +924,17 @@
       <c r="P8" t="n">
         <v>151</v>
       </c>
-      <c r="Q8" t="n">
-        <v>19</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>8831</v>
+      </c>
       <c r="S8" t="n">
-        <v>8831</v>
+        <v>18</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>['Airlie Beach', 'Brisbane', 'Brisbane Central', 'Brisbane East', 'Brisbane North', 'Brisbane South', 'Brisbane West', 'Brisbane west', 'Eastern', 'Gold Coast', 'Gold coast', 'Ipswich', 'Moreton Bay', 'Northern', 'South East Queensland', 'Southern', 'Sunshine Coast', 'Western']</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -946,16 +990,21 @@
       <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>888</v>
+      </c>
       <c r="S9" t="n">
-        <v>888</v>
+        <v>5</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>['1', '2', '4', '5', '6']</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1011,16 +1060,21 @@
       <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Standard retailer</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>15303</v>
+      </c>
       <c r="S10" t="n">
-        <v>15303</v>
+        <v>5</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>['Bus fare machine', 'Preloaded reseller', 'Rail fare machine', 'Rail ticket office', 'Standard retailer']</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1076,12 +1130,17 @@
       <c r="P11" t="n">
         <v>887</v>
       </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>346</v>
+      </c>
       <c r="S11" t="n">
-        <v>346</v>
+        <v>4</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>['Adult go cards only', 'EFTPOS Sales only - VISA and MasterCard accepted.', "Refunds not available from this agent.  \n\nCustomers are able to apply for an EFT refund to an Australian bank account by filling in the 'go card guide to Balance Transfers and Refunds' Form available from the agent.", 'Shop G38 - Corner of View Avenue and Surfers Paradise Boulevard']</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1137,16 +1196,21 @@
       <c r="P12" t="n">
         <v>227</v>
       </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>go card</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>5233</v>
+      </c>
       <c r="S12" t="n">
-        <v>5233</v>
+        <v>3</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>['225', 'Gold Coast go explore card', 'go card']</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1202,12 +1266,17 @@
       <c r="P13" t="n">
         <v>775</v>
       </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>2251</v>
+      </c>
       <c r="S13" t="n">
-        <v>2251</v>
+        <v>4</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>['773', 'Gold Coast go explore card', 'SEEQ card', 'Visitor Information Pack']</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1263,12 +1332,17 @@
       <c r="P14" t="n">
         <v>861</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>699</v>
+      </c>
       <c r="S14" t="n">
-        <v>699</v>
+        <v>2</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>['859', 'Visitor Information Pack']</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1324,16 +1398,21 @@
       <c r="P15" t="n">
         <v>89</v>
       </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>2846</v>
+      </c>
       <c r="S15" t="n">
-        <v>2846</v>
+        <v>4</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>['87', 'Buy', 'Change expiry date', 'Top up']</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1389,12 +1468,17 @@
       <c r="P16" t="n">
         <v>497</v>
       </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>2373</v>
+      </c>
       <c r="S16" t="n">
-        <v>2373</v>
+        <v>3</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>['495', 'Change expiry date', 'Top up']</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1450,12 +1534,17 @@
       <c r="P17" t="n">
         <v>548</v>
       </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>4531</v>
+      </c>
       <c r="S17" t="n">
-        <v>4531</v>
+        <v>4</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>['546', 'Change expiry date', 'Refund', 'Register']</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1511,12 +1600,17 @@
       <c r="P18" t="n">
         <v>729</v>
       </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1020</v>
+      </c>
       <c r="S18" t="n">
-        <v>1020</v>
+        <v>2</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>['Change expiry date', 'Refund']</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1572,12 +1666,17 @@
       <c r="P19" t="n">
         <v>733</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>2844</v>
+      </c>
       <c r="S19" t="n">
-        <v>2844</v>
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>['Change expiry date']</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1633,12 +1732,17 @@
       <c r="P20" t="n">
         <v>502</v>
       </c>
-      <c r="Q20" t="n">
-        <v>12</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>3608</v>
+      </c>
       <c r="S20" t="n">
-        <v>3608</v>
+        <v>11</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>['500', 'Airlie Beach', 'Brisbane', 'Gold Coast', 'Ipswich', 'Logan', 'Moreton Bay', 'Redlands', 'South East Queensland', 'Sunshine Coast', 'Toowoomba']</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1694,12 +1798,17 @@
       <c r="P21" t="n">
         <v>891</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
       <c r="S21" t="n">
         <v>0</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
     </row>
   </sheetData>
